--- a/src/test/Cajas negras.xlsx
+++ b/src/test/Cajas negras.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicio 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Ejercicio 3" sheetId="1" r:id="rId2"/>
+    <sheet name="Ejercicio 4" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Se introduce una cadena</t>
   </si>
@@ -53,6 +55,27 @@
   </si>
   <si>
     <t xml:space="preserve">" " </t>
+  </si>
+  <si>
+    <t>con vocales</t>
+  </si>
+  <si>
+    <t>sin vocales</t>
+  </si>
+  <si>
+    <t>"hlqtl"</t>
+  </si>
+  <si>
+    <t>con dígitos</t>
+  </si>
+  <si>
+    <t>sin dígitos</t>
+  </si>
+  <si>
+    <t>"123asd45asd"</t>
+  </si>
+  <si>
+    <t>"asdasd"</t>
   </si>
 </sst>
 </file>
@@ -84,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -107,29 +130,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +614,161 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,125 +779,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C5:E5"/>
@@ -576,19 +917,165 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H1:I3"/>
-    <mergeCell ref="J1:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="F1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/Cajas negras.xlsx
+++ b/src/test/Cajas negras.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicio 2" sheetId="3" r:id="rId1"/>
-    <sheet name="Ejercicio 3" sheetId="1" r:id="rId2"/>
-    <sheet name="Ejercicio 4" sheetId="2" r:id="rId3"/>
+    <sheet name="Ejercicio 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Ejercicio 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Ejercicio 3" sheetId="1" r:id="rId3"/>
+    <sheet name="Ejercicio 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Ejercicio 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Ejercicio 6" sheetId="7" r:id="rId6"/>
+    <sheet name="Ejercicio 7 y 8" sheetId="8" r:id="rId7"/>
+    <sheet name="Ejercicio 9" sheetId="9" r:id="rId8"/>
+    <sheet name="Ejercicio 10" sheetId="2" r:id="rId9"/>
+    <sheet name="Ejercicio 11" sheetId="10" r:id="rId10"/>
+    <sheet name="Ejercicio 12" sheetId="11" r:id="rId11"/>
+    <sheet name="Ejercicio 13" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="58">
   <si>
     <t>Se introduce una cadena</t>
   </si>
@@ -76,6 +85,120 @@
   </si>
   <si>
     <t>"asdasd"</t>
+  </si>
+  <si>
+    <t>Se introduce lo que pide el matches</t>
+  </si>
+  <si>
+    <t>Se introduce lo contrario</t>
+  </si>
+  <si>
+    <t>No introduce nada</t>
+  </si>
+  <si>
+    <t>Pruebas manuales</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) "True"; b) AaA; c) holaaaaa; d) Hola; e) acde; f) 250; g) 956660066; h) 32456789T; i) Ana; j) abcd; k) hola@gmail.es </t>
+  </si>
+  <si>
+    <t>a) "false"; b) AaAa; c) holaaaaañ; d) 1Hola; e) abcde; f) 350; g) 95666006666; h) 32456789Ñ; i) Ana María; j) bbba; k) hola.hola@gmail.jk</t>
+  </si>
+  <si>
+    <t>aparece el carácter</t>
+  </si>
+  <si>
+    <t>no aparece el carácter</t>
+  </si>
+  <si>
+    <t>"holaaaa"; 'a'</t>
+  </si>
+  <si>
+    <t>"holaaaa"; 'b'</t>
+  </si>
+  <si>
+    <t>no introduce nada</t>
+  </si>
+  <si>
+    <t>introduce un carácter que aparece</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> introduce un carácter que no aparece</t>
+  </si>
+  <si>
+    <t>Introduce las 2 cadenas</t>
+  </si>
+  <si>
+    <t>Introduce 1 pero no la otra</t>
+  </si>
+  <si>
+    <t>"hola"; "Ana"</t>
+  </si>
+  <si>
+    <t>" "; "Ana" // "hola"; " "</t>
+  </si>
+  <si>
+    <t>Introduce las 2 cadenas y un número de caracteres menor o igual que los de la cadena 1</t>
+  </si>
+  <si>
+    <t>Introduce las 2 cadenas y un número de caracteres mayor que los de la cadena 1</t>
+  </si>
+  <si>
+    <t>"hola";"hola"; 3</t>
+  </si>
+  <si>
+    <t>"hola";"hola"; 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Se introduce una cadena y un carácter</t>
+  </si>
+  <si>
+    <t>el carácter está en la cadena</t>
+  </si>
+  <si>
+    <t>el carácter no está en la cadena</t>
+  </si>
+  <si>
+    <t>"holaaa"; 'a'</t>
+  </si>
+  <si>
+    <t>"holaaa"; 'c'</t>
+  </si>
+  <si>
+    <t>cadena 2 está en cadena 1</t>
+  </si>
+  <si>
+    <t>cadena 2 no está en cadena 1</t>
+  </si>
+  <si>
+    <t>"hola que tal que te cuentas"; "que"</t>
+  </si>
+  <si>
+    <t>"hola que tal que te cuentas"; "123"</t>
+  </si>
+  <si>
+    <t>La cadena no tiene espacios</t>
+  </si>
+  <si>
+    <t>La cadena tiene espacios</t>
+  </si>
+  <si>
+    <t>solo 1</t>
+  </si>
+  <si>
+    <t>más de 1</t>
+  </si>
+  <si>
+    <t>"hola  que  tal"</t>
   </si>
 </sst>
 </file>
@@ -251,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,49 +385,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -611,70 +781,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -682,20 +982,20 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -703,20 +1003,20 @@
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -724,18 +1024,18 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -763,77 +1063,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -841,20 +1141,20 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -862,20 +1162,20 @@
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -883,176 +1183,18 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="H1:I3"/>
-    <mergeCell ref="J1:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1078,4 +1220,1395 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>